--- a/source/PART 01/CHAPTER 02/테이블-병합.xlsx
+++ b/source/PART 01/CHAPTER 02/테이블-병합.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최준선\Desktop\CD\PART 01\CHAPTER 02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\source\PART 01\CHAPTER 02\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73297B55-7488-4242-90E8-BBA316D716C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15600" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample1" sheetId="1" r:id="rId1"/>
     <sheet name="sample2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="31">
   <si>
     <t>고객</t>
   </si>
@@ -42,10 +43,6 @@
   <si>
     <t>판매</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세 내역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>N-0705</t>
@@ -126,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,15 +163,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -265,43 +253,37 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -619,100 +601,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1176000</v>
+      </c>
+      <c r="F2" s="4">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
+      <c r="G2" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2998800</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="4">
-        <v>1176000</v>
+        <v>48300</v>
       </c>
       <c r="F3" s="4">
         <v>3</v>
       </c>
       <c r="G3" s="5">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>2998800</v>
+        <v>144900</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4">
-        <v>48300</v>
+        <v>47400</v>
       </c>
       <c r="F4" s="4">
         <v>3</v>
@@ -721,328 +717,296 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>144900</v>
+        <v>142200</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
+        <v>17800</v>
+      </c>
+      <c r="F5" s="4">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4">
-        <v>47400</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3</v>
-      </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>142200</v>
+        <v>160200</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="4">
-        <v>17800</v>
+        <v>86500</v>
       </c>
       <c r="F6" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>160200</v>
+        <v>605500</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4">
-        <v>86500</v>
+        <v>3500</v>
       </c>
       <c r="F7" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>605500</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1">
       <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4">
-        <v>3500</v>
+        <v>46300</v>
       </c>
       <c r="F8" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>7000</v>
+        <v>324100</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4">
-        <v>46300</v>
+        <v>104500</v>
       </c>
       <c r="F9" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <v>324100</v>
+        <v>836000</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4">
-        <v>104500</v>
+        <v>79800</v>
       </c>
       <c r="F10" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>836000</v>
+        <v>79800</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="4">
-        <v>79800</v>
+        <v>89300</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <v>79800</v>
+        <v>714400</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4">
-        <v>89300</v>
+        <v>4100</v>
       </c>
       <c r="F12" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <v>714400</v>
+        <v>28700</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4">
-        <v>4100</v>
+        <v>79500</v>
       </c>
       <c r="F13" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <v>28700</v>
+        <v>159000</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E14" s="4">
-        <v>79500</v>
+        <v>165300</v>
       </c>
       <c r="F14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>159000</v>
+        <v>495900</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
       <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4">
-        <v>165300</v>
+        <v>3600</v>
       </c>
       <c r="F15" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>495900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3600</v>
-      </c>
-      <c r="F16" s="4">
-        <v>8</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
         <v>28800</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
@@ -1053,22 +1017,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1094,16 +1058,16 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="4">
         <v>1176000</v>
@@ -1120,14 +1084,16 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10"/>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4">
         <v>48300</v>
@@ -1144,14 +1110,16 @@
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9"/>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4">
         <v>47400</v>
@@ -1168,16 +1136,16 @@
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="4">
         <v>17800</v>
@@ -1194,14 +1162,16 @@
     </row>
     <row r="6" spans="1:8" ht="19.5" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4">
         <v>86500</v>
@@ -1218,16 +1188,16 @@
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1">
       <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E7" s="4">
         <v>3500</v>
@@ -1244,14 +1214,16 @@
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1">
       <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10"/>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4">
         <v>46300</v>
@@ -1268,14 +1240,16 @@
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="9"/>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4">
         <v>104500</v>
@@ -1292,16 +1266,16 @@
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E10" s="4">
         <v>79800</v>
@@ -1318,14 +1292,16 @@
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4">
         <v>89300</v>
@@ -1342,14 +1318,16 @@
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4">
         <v>4100</v>
@@ -1366,16 +1344,16 @@
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4">
         <v>79500</v>
@@ -1392,14 +1370,16 @@
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="10"/>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="4">
         <v>165300</v>
@@ -1416,14 +1396,16 @@
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
       <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="9"/>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4">
         <v>3600</v>
@@ -1439,13 +1421,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C2:C4"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
